--- a/01-note-paper/01-magic-cube/4-代码实现-3D-cmesh.xlsx
+++ b/01-note-paper/01-magic-cube/4-代码实现-3D-cmesh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>确定port</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,94 @@
   </si>
   <si>
     <t>destination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特例条件：x,y均为偶数则为sp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -241,11 +335,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +462,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,6 +1046,94 @@
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1238250" y="419100"/>
+          <a:ext cx="552450" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="400050"/>
+          <a:ext cx="581025" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1151,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:K32"/>
+  <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1163,35 +1454,69 @@
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="L5" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="1">
         <v>12</v>
       </c>
@@ -1204,14 +1529,31 @@
       <c r="I7" s="1">
         <v>15</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="10">
         <v>8</v>
       </c>
@@ -1224,18 +1566,35 @@
       <c r="I8" s="18">
         <v>11</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="26"/>
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="9">
         <v>4</v>
       </c>
@@ -1248,18 +1607,39 @@
       <c r="I9" s="9">
         <v>7</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="26"/>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="1">
         <v>0</v>
       </c>
@@ -1272,22 +1652,43 @@
       <c r="I10" s="8">
         <v>3</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1299,7 +1700,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1310,8 +1711,11 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" t="s">
@@ -1326,7 +1730,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1338,7 +1742,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.15">
